--- a/admin/data_dictionary.xlsx
+++ b/admin/data_dictionary.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de6cb9e11468ad32/Documents/Jason/NYC Data Science Academy/projects/machine_learning/ghub_work_area/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{481E4E18-0B96-443B-9AF9-0EA5DCF5FB35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:40009_{481E4E18-0B96-443B-9AF9-0EA5DCF5FB35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{06CB616B-1A16-4785-86BD-48544EAA4710}"/>
   <bookViews>
-    <workbookView xWindow="28620" yWindow="-21600" windowWidth="25845" windowHeight="21000"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Feature Name</t>
   </si>
@@ -166,11 +166,20 @@
   <si>
     <t>Dummy variable for homes with garage capacity for two or more cars.</t>
   </si>
+  <si>
+    <t>remodelage</t>
+  </si>
+  <si>
+    <t>Years Since Remodel Added</t>
+  </si>
+  <si>
+    <t>Zero if Year Sold Less Year Remodel Added is Less Than 5 Years, Otherwise this length less 5 years.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1027,12 +1036,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1164,45 +1171,56 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>44</v>
       </c>
     </row>
